--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2494.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2494.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.495467390112261</v>
+        <v>1.126707792282104</v>
       </c>
       <c r="B1">
-        <v>4.097090551693143</v>
+        <v>0.8723677396774292</v>
       </c>
       <c r="C1">
-        <v>3.794718288184708</v>
+        <v>4.115319728851318</v>
       </c>
       <c r="D1">
-        <v>3.054013117698574</v>
+        <v>2.784535884857178</v>
       </c>
       <c r="E1">
-        <v>2.65308096383657</v>
+        <v>0.784727931022644</v>
       </c>
     </row>
   </sheetData>
